--- a/테이블 정의서.xlsx
+++ b/테이블 정의서.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenArt\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\이경욱\기획\포트폴리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="expedition_content" sheetId="2" r:id="rId1"/>
-    <sheet name="daily_content" sheetId="3" r:id="rId2"/>
-    <sheet name="weekly_content" sheetId="4" r:id="rId3"/>
+    <sheet name="weekly_content" sheetId="4" r:id="rId2"/>
+    <sheet name="daily_content" sheetId="3" r:id="rId3"/>
+    <sheet name="member_list" sheetId="7" r:id="rId4"/>
+    <sheet name="character_list" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -217,6 +219,82 @@
   </si>
   <si>
     <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrno</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성 아이템 레벨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 획득 가능 레벨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prizelevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_list</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -313,9 +391,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,17 +413,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,201 +713,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -842,6 +942,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -859,163 +1186,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1030,12 +1357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,45 +1375,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1112,118 +1439,258 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
